--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_22-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_22-01.xlsx
@@ -2933,7 +2933,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
